--- a/transactions_isit.xlsx
+++ b/transactions_isit.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8232"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Vika" sheetId="1" r:id="rId1"/>
+    <sheet name="Artyom" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -549,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1153,562 +1154,577 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H1" t="s">
         <v>53</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I1" t="s">
         <v>54</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D2" t="s">
         <v>48</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G2" t="s">
         <v>53</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F3" t="s">
         <v>46</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>4</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B4" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H4" t="s">
         <v>44</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I4" t="s">
         <v>54</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>62</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E5" t="s">
         <v>63</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>6</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D6" t="s">
         <v>62</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H6" t="s">
         <v>48</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>7</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C7" t="s">
         <v>62</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D7" t="s">
         <v>63</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F7" t="s">
         <v>42</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H7" t="s">
         <v>25</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I7" t="s">
         <v>23</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B8" t="s">
         <v>53</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C8" t="s">
         <v>58</v>
       </c>
-      <c r="D31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F8" t="s">
         <v>64</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G8" t="s">
         <v>54</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H8" t="s">
         <v>48</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I8" t="s">
         <v>34</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>9</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C9" t="s">
         <v>65</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E9" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F9" t="s">
         <v>55</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G9" t="s">
         <v>20</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H9" t="s">
         <v>44</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>10</v>
       </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D10" t="s">
         <v>46</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G10" t="s">
         <v>31</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>11</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B11" t="s">
         <v>62</v>
       </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G11" t="s">
         <v>28</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H11" t="s">
         <v>48</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>12</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B12" t="s">
         <v>55</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>13</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B13" t="s">
         <v>59</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F13" t="s">
         <v>64</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>62</v>
       </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
         <v>57</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E14" t="s">
         <v>52</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F14" t="s">
         <v>67</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G14" t="s">
         <v>63</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H14" t="s">
         <v>15</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I14" t="s">
         <v>17</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>15</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B15" t="s">
         <v>61</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C15" t="s">
         <v>68</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D15" t="s">
         <v>64</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E15" t="s">
         <v>54</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F15" t="s">
         <v>31</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G15" t="s">
         <v>53</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>16</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C16" t="s">
         <v>65</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D16" t="s">
         <v>64</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G16" t="s">
         <v>43</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H16" t="s">
         <v>39</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I16" t="s">
         <v>40</v>
       </c>
-      <c r="J39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>17</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E17" t="s">
         <v>57</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F17" t="s">
         <v>37</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G17" t="s">
         <v>33</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>18</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D18" t="s">
         <v>57</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
         <v>61</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>19</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E19" t="s">
         <v>57</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>20</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C20" t="s">
         <v>53</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D20" t="s">
         <v>52</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E20" t="s">
         <v>58</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F20" t="s">
         <v>55</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G20" t="s">
         <v>37</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H20" t="s">
         <v>34</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I20" t="s">
         <v>48</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J20" t="s">
         <v>43</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K20" t="s">
         <v>67</v>
       </c>
     </row>

--- a/transactions_isit.xlsx
+++ b/transactions_isit.xlsx
@@ -517,7 +517,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
